--- a/ERP Master/Customer_Master/customers.xlsx
+++ b/ERP Master/Customer_Master/customers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Omkar Kadam\ERP Master\Customer_Master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Omkar Kadam_selenium\ERP Master\Customer_Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -177,19 +177,19 @@
     <t>LOGISTICS</t>
   </si>
   <si>
-    <t>DEF Logistics Ltd</t>
-  </si>
-  <si>
-    <t>ADECK4599D</t>
-  </si>
-  <si>
     <t>AXYCK4599D</t>
   </si>
   <si>
-    <t>27ADECK4599DSZO</t>
-  </si>
-  <si>
     <t>27AXYCK4599DSZO</t>
+  </si>
+  <si>
+    <t>ABC Logistics Ltd</t>
+  </si>
+  <si>
+    <t>AIACK3602D</t>
+  </si>
+  <si>
+    <t>27AIACK3602DSZO</t>
   </si>
 </sst>
 </file>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -665,7 +665,7 @@
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
@@ -689,7 +689,7 @@
         <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
         <v>34</v>
@@ -719,7 +719,7 @@
         <v>39</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
@@ -766,7 +766,7 @@
         <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
         <v>48</v>
@@ -796,7 +796,7 @@
         <v>51</v>
       </c>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
